--- a/0_docs/CheckListForm_4week.xlsx
+++ b/0_docs/CheckListForm_4week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\유도진\Dropbox\MJU\Coin\2.study\21_1\Study-21-1-codingTest\0_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156C8EC9-5D9E-4832-B8C9-AC30E478B080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4483700C-B915-4A83-8874-9E13924F8E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="645" windowWidth="14355" windowHeight="15555" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="780" yWindow="645" windowWidth="14355" windowHeight="15555" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="67">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,142 +108,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완전탐색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리모컨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/9019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSLR</t>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/5014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타트링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1759</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1963</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소수경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2580</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스도쿠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1987</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알파벳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부분합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1261</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알고스팟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2186</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/3108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1644</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소수의 연속합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 배열의 합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1525</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼즐(선택문제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/1208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부분 수열의 합 2(선택문제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/7453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.acmicpc.net/problem/2632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피자판매(선택문제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합이 0인 네 정수(선택문제)</t>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/12865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한배낭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 증가하는 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/9251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 높은 탑 쌓기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1463</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1로 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2×n 타일링</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11727</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2×n 타일링 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/9095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3 더하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/10844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬운 계단 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오르막 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이친수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/9465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스티커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도주 시식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 큰 증가 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11722</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 감소하는 부분 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 긴 바이토닉 부분 수열</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1912</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단오르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱수의 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타일 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/9461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도반 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합분해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/11052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 구매하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +352,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -312,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -672,6 +734,21 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,7 +761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,15 +807,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -757,6 +825,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -766,25 +849,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,8 +876,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1114,13 +1194,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA290B9-D938-4FB9-A2F0-C9496544FB19}">
-  <dimension ref="B1:V206"/>
+  <dimension ref="B1:V290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="G279" sqref="G279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
@@ -1130,13 +1210,13 @@
     <col min="6" max="6" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:6" ht="27" thickBot="1">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1144,18 +1224,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1164,11 +1244,11 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+    <row r="5" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
@@ -1179,118 +1259,118 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:6" ht="27" thickBot="1">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="34" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="33"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="33"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="33"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B11" s="34"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="33"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B14" s="34"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="2:6" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="29" t="s">
+    <row r="17" spans="2:22" ht="17.25" thickBot="1">
+      <c r="B17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>4</v>
@@ -1299,103 +1379,103 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
+    <row r="18" spans="2:22" ht="27" thickBot="1">
+      <c r="B18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="2:22" ht="16.5" customHeight="1">
+      <c r="B19" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="33"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="33"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="33"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:22" ht="17.25" thickBot="1">
+      <c r="B23" s="34"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="33"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="2:22" ht="17.25" thickBot="1">
+      <c r="B26" s="34"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="2:22" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="2:22" s="7" customFormat="1" ht="6.6" customHeight="1" thickBot="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="2:22">
+      <c r="B28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="1" t="s">
         <v>24</v>
       </c>
@@ -1404,11 +1484,11 @@
       </c>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="29" t="s">
+    <row r="29" spans="2:22" ht="17.25" thickBot="1">
+      <c r="B29" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="30"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="10" t="s">
         <v>23</v>
       </c>
@@ -1419,100 +1499,100 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="31" t="s">
+    <row r="30" spans="2:22" ht="27" thickBot="1">
+      <c r="B30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-    </row>
-    <row r="31" spans="2:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="2:22" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B31" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="33"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
       <c r="V32" s="14">
         <v>44267</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
+    <row r="33" spans="2:6">
+      <c r="B33" s="33"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="33"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="17"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B35" s="34"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="33"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="17"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B38" s="34"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="2:6" ht="7.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="2:6" ht="7.15" customHeight="1" thickBot="1"/>
+    <row r="40" spans="2:6">
+      <c r="B40" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="28"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="1" t="s">
         <v>26</v>
       </c>
@@ -1521,11 +1601,11 @@
       </c>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="29" t="s">
+    <row r="41" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B41" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="30"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="10" t="s">
         <v>25</v>
       </c>
@@ -1536,97 +1616,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="31" t="s">
+    <row r="42" spans="2:6" ht="27" thickBot="1">
+      <c r="B42" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="34" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B43" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="33"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="33"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="33"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="17"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B47" s="34"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="15" t="s">
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="33"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="17"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B50" s="34"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="27" t="s">
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="52" spans="2:6">
+      <c r="B52" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="28"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
@@ -1635,11 +1715,11 @@
       </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="29" t="s">
+    <row r="53" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B53" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="30"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="10" t="s">
         <v>27</v>
       </c>
@@ -1650,97 +1730,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="31" t="s">
+    <row r="54" spans="2:6" ht="27" thickBot="1">
+      <c r="B54" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-    </row>
-    <row r="55" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="34" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B55" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="11"/>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="33"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="33"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="16"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="33"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="17"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B59" s="34"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="15" t="s">
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="33"/>
       <c r="C61" s="12"/>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-    </row>
-    <row r="62" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="17"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B62" s="34"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+    </row>
+    <row r="63" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="64" spans="2:6">
+      <c r="B64" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="28"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
@@ -1749,11 +1829,11 @@
       </c>
       <c r="F64" s="14"/>
     </row>
-    <row r="65" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="29" t="s">
+    <row r="65" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B65" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="30"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="10" t="s">
         <v>29</v>
       </c>
@@ -1764,97 +1844,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="31" t="s">
+    <row r="66" spans="2:6" ht="27" thickBot="1">
+      <c r="B66" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="34" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B67" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="33"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="16"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="33"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="16"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="33"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-    </row>
-    <row r="71" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="17"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B71" s="34"/>
       <c r="C71" s="13"/>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="15" t="s">
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="33"/>
       <c r="C73" s="12"/>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-    </row>
-    <row r="74" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B74" s="34"/>
       <c r="C74" s="13"/>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="26"/>
-    </row>
-    <row r="75" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="76" spans="2:6">
+      <c r="B76" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="28"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,11 +1943,11 @@
       </c>
       <c r="F76" s="14"/>
     </row>
-    <row r="77" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="29" t="s">
+    <row r="77" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B77" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="30"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="10" t="s">
         <v>31</v>
       </c>
@@ -1878,97 +1958,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="31" t="s">
+    <row r="78" spans="2:6" ht="27" thickBot="1">
+      <c r="B78" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33"/>
-    </row>
-    <row r="79" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="34" t="s">
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B79" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="11"/>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="33"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="16"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="33"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="21" t="s">
+      <c r="D81" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="16"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="33"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-    </row>
-    <row r="83" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="17"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B83" s="34"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="26"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="15" t="s">
+      <c r="E83" s="27"/>
+      <c r="F83" s="28"/>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="33"/>
       <c r="C85" s="12"/>
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-    </row>
-    <row r="86" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="17"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+    </row>
+    <row r="86" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B86" s="34"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-    </row>
-    <row r="87" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="27" t="s">
+      <c r="E86" s="27"/>
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="88" spans="2:6">
+      <c r="B88" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="28"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="1" t="s">
         <v>34</v>
       </c>
@@ -1977,11 +2057,11 @@
       </c>
       <c r="F88" s="14"/>
     </row>
-    <row r="89" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="29" t="s">
+    <row r="89" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B89" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="30"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="10" t="s">
         <v>33</v>
       </c>
@@ -1992,97 +2072,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="31" t="s">
+    <row r="90" spans="2:6" ht="27" thickBot="1">
+      <c r="B90" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33"/>
-    </row>
-    <row r="91" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="34" t="s">
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B91" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C91" s="11"/>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="20"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="35"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="36"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="35"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="36"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="21" t="s">
+      <c r="D93" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="35"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="36"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="21" t="s">
+      <c r="D94" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-    </row>
-    <row r="95" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="36"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
+    </row>
+    <row r="95" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B95" s="37"/>
       <c r="C95" s="13"/>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="26"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="15" t="s">
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="19"/>
-      <c r="F96" s="20"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="33"/>
       <c r="C97" s="12"/>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23"/>
-    </row>
-    <row r="98" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="17"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+    </row>
+    <row r="98" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B98" s="34"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="25"/>
-      <c r="F98" s="26"/>
-    </row>
-    <row r="99" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="27" t="s">
+      <c r="E98" s="27"/>
+      <c r="F98" s="28"/>
+    </row>
+    <row r="99" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="100" spans="2:6">
+      <c r="B100" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="28"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="1" t="s">
         <v>36</v>
       </c>
@@ -2091,11 +2171,11 @@
       </c>
       <c r="F100" s="14"/>
     </row>
-    <row r="101" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="29" t="s">
+    <row r="101" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B101" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="30"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="10" t="s">
         <v>35</v>
       </c>
@@ -2106,97 +2186,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="31" t="s">
+    <row r="102" spans="2:6" ht="27" thickBot="1">
+      <c r="B102" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="33"/>
-    </row>
-    <row r="103" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="34" t="s">
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="29"/>
+    </row>
+    <row r="103" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B103" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="11"/>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="36"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="21" t="s">
+      <c r="D104" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="22"/>
-      <c r="F104" s="23"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="16"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="36"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="16"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="20"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="36"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
-    </row>
-    <row r="107" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="17"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="20"/>
+    </row>
+    <row r="107" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B107" s="37"/>
       <c r="C107" s="13"/>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="26"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="15" t="s">
+      <c r="E107" s="27"/>
+      <c r="F107" s="28"/>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="20"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="33"/>
       <c r="C109" s="12"/>
-      <c r="D109" s="21" t="s">
+      <c r="D109" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="23"/>
-    </row>
-    <row r="110" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="17"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
+    </row>
+    <row r="110" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B110" s="34"/>
       <c r="C110" s="13"/>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="25"/>
-      <c r="F110" s="26"/>
-    </row>
-    <row r="111" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="27" t="s">
+      <c r="E110" s="27"/>
+      <c r="F110" s="28"/>
+    </row>
+    <row r="111" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="112" spans="2:6">
+      <c r="B112" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="28"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="1" t="s">
         <v>38</v>
       </c>
@@ -2205,11 +2285,11 @@
       </c>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="29" t="s">
+    <row r="113" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B113" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="30"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="10" t="s">
         <v>37</v>
       </c>
@@ -2220,97 +2300,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="31" t="s">
+    <row r="114" spans="2:6" ht="27" thickBot="1">
+      <c r="B114" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="F114" s="33"/>
-    </row>
-    <row r="115" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="34" t="s">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="2:6" ht="16.5" customHeight="1">
+      <c r="B115" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="11"/>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="33"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="21" t="s">
+      <c r="D116" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="22"/>
-      <c r="F116" s="23"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="16"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="20"/>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="33"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="21" t="s">
+      <c r="D117" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="23"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="16"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="33"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="22"/>
-      <c r="F118" s="23"/>
-    </row>
-    <row r="119" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="17"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
+    </row>
+    <row r="119" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B119" s="34"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="26"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="15" t="s">
+      <c r="E119" s="27"/>
+      <c r="F119" s="28"/>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="1"/>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E120" s="19"/>
-      <c r="F120" s="20"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="33"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="21" t="s">
+      <c r="D121" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="23"/>
-    </row>
-    <row r="122" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="17"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
+    </row>
+    <row r="122" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B122" s="34"/>
       <c r="C122" s="13"/>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E122" s="25"/>
-      <c r="F122" s="26"/>
-    </row>
-    <row r="123" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="27" t="s">
+      <c r="E122" s="27"/>
+      <c r="F122" s="28"/>
+    </row>
+    <row r="123" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="124" spans="2:6">
+      <c r="B124" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="28"/>
+      <c r="C124" s="31"/>
       <c r="D124" s="1" t="s">
         <v>40</v>
       </c>
@@ -2319,11 +2399,11 @@
       </c>
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="29" t="s">
+    <row r="125" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B125" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="30"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="10" t="s">
         <v>39</v>
       </c>
@@ -2334,97 +2414,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="31" t="s">
+    <row r="126" spans="2:6" ht="27" thickBot="1">
+      <c r="B126" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="33"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="34" t="s">
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="29"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="33"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="23"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="16"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="33"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="21" t="s">
+      <c r="D129" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="23"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="16"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="33"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="21" t="s">
+      <c r="D130" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="22"/>
-      <c r="F130" s="23"/>
-    </row>
-    <row r="131" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="17"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="20"/>
+    </row>
+    <row r="131" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B131" s="34"/>
       <c r="C131" s="13"/>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E131" s="25"/>
-      <c r="F131" s="26"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="15" t="s">
+      <c r="E131" s="27"/>
+      <c r="F131" s="28"/>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="1"/>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E132" s="19"/>
-      <c r="F132" s="20"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="B133" s="33"/>
       <c r="C133" s="12"/>
-      <c r="D133" s="21" t="s">
+      <c r="D133" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="23"/>
-    </row>
-    <row r="134" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="17"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="20"/>
+    </row>
+    <row r="134" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B134" s="34"/>
       <c r="C134" s="13"/>
-      <c r="D134" s="24" t="s">
+      <c r="D134" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="25"/>
-      <c r="F134" s="26"/>
-    </row>
-    <row r="135" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="27" t="s">
+      <c r="E134" s="27"/>
+      <c r="F134" s="28"/>
+    </row>
+    <row r="135" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="136" spans="2:6">
+      <c r="B136" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C136" s="28"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="1" t="s">
         <v>42</v>
       </c>
@@ -2433,11 +2513,11 @@
       </c>
       <c r="F136" s="14"/>
     </row>
-    <row r="137" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="29" t="s">
+    <row r="137" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B137" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="30"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="10" t="s">
         <v>41</v>
       </c>
@@ -2448,97 +2528,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="31" t="s">
+    <row r="138" spans="2:6" ht="27" thickBot="1">
+      <c r="B138" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C138" s="32"/>
-      <c r="D138" s="32"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="33"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="34" t="s">
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="29"/>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="B139" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C139" s="11"/>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="20"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="B140" s="33"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="23"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="16"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="20"/>
+    </row>
+    <row r="141" spans="2:6">
+      <c r="B141" s="33"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E141" s="22"/>
-      <c r="F141" s="23"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="16"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="20"/>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="B142" s="33"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="21" t="s">
+      <c r="D142" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="23"/>
-    </row>
-    <row r="143" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="17"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="20"/>
+    </row>
+    <row r="143" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B143" s="34"/>
       <c r="C143" s="13"/>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="25"/>
-      <c r="F143" s="26"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="15" t="s">
+      <c r="E143" s="27"/>
+      <c r="F143" s="28"/>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="20"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="17"/>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="33"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="21" t="s">
+      <c r="D145" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="23"/>
-    </row>
-    <row r="146" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="17"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20"/>
+    </row>
+    <row r="146" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B146" s="34"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="26"/>
-    </row>
-    <row r="147" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="27" t="s">
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
+    </row>
+    <row r="147" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="148" spans="2:6">
+      <c r="B148" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C148" s="28"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="1" t="s">
         <v>44</v>
       </c>
@@ -2547,11 +2627,11 @@
       </c>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="29" t="s">
+    <row r="149" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B149" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C149" s="30"/>
+      <c r="C149" s="25"/>
       <c r="D149" s="10" t="s">
         <v>43</v>
       </c>
@@ -2562,97 +2642,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="31" t="s">
+    <row r="150" spans="2:6" ht="27" thickBot="1">
+      <c r="B150" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="32"/>
-      <c r="D150" s="32"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="33"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="34" t="s">
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="29"/>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="11"/>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="20"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="33"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="21" t="s">
+      <c r="D152" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="23"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="16"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="20"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="33"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="21" t="s">
+      <c r="D153" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="23"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="16"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="20"/>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="33"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="21" t="s">
+      <c r="D154" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E154" s="22"/>
-      <c r="F154" s="23"/>
-    </row>
-    <row r="155" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="17"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="20"/>
+    </row>
+    <row r="155" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B155" s="34"/>
       <c r="C155" s="13"/>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="25"/>
-      <c r="F155" s="26"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="15" t="s">
+      <c r="E155" s="27"/>
+      <c r="F155" s="28"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="1"/>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="17"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="33"/>
       <c r="C157" s="12"/>
-      <c r="D157" s="21" t="s">
+      <c r="D157" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E157" s="22"/>
-      <c r="F157" s="23"/>
-    </row>
-    <row r="158" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="17"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="20"/>
+    </row>
+    <row r="158" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B158" s="34"/>
       <c r="C158" s="13"/>
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E158" s="25"/>
-      <c r="F158" s="26"/>
-    </row>
-    <row r="159" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="27" t="s">
+      <c r="E158" s="27"/>
+      <c r="F158" s="28"/>
+    </row>
+    <row r="159" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="160" spans="2:6">
+      <c r="B160" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="28"/>
+      <c r="C160" s="31"/>
       <c r="D160" s="1" t="s">
         <v>46</v>
       </c>
@@ -2661,11 +2741,11 @@
       </c>
       <c r="F160" s="14"/>
     </row>
-    <row r="161" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="29" t="s">
+    <row r="161" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B161" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C161" s="30"/>
+      <c r="C161" s="25"/>
       <c r="D161" s="10" t="s">
         <v>45</v>
       </c>
@@ -2676,97 +2756,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="31" t="s">
+    <row r="162" spans="2:6" ht="27" thickBot="1">
+      <c r="B162" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="32"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="33"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="34" t="s">
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="22"/>
+      <c r="F162" s="29"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C163" s="11"/>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="20"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="17"/>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" s="33"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="21" t="s">
+      <c r="D164" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="22"/>
-      <c r="F164" s="23"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="16"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="20"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="33"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="21" t="s">
+      <c r="D165" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E165" s="22"/>
-      <c r="F165" s="23"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="16"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="20"/>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="33"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="21" t="s">
+      <c r="D166" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E166" s="22"/>
-      <c r="F166" s="23"/>
-    </row>
-    <row r="167" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="17"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="20"/>
+    </row>
+    <row r="167" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B167" s="34"/>
       <c r="C167" s="13"/>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="25"/>
-      <c r="F167" s="26"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="15" t="s">
+      <c r="E167" s="27"/>
+      <c r="F167" s="28"/>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="19"/>
-      <c r="F168" s="20"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="17"/>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="33"/>
       <c r="C169" s="12"/>
-      <c r="D169" s="21" t="s">
+      <c r="D169" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E169" s="22"/>
-      <c r="F169" s="23"/>
-    </row>
-    <row r="170" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="17"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="20"/>
+    </row>
+    <row r="170" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B170" s="34"/>
       <c r="C170" s="13"/>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="25"/>
-      <c r="F170" s="26"/>
-    </row>
-    <row r="171" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="27" t="s">
+      <c r="E170" s="27"/>
+      <c r="F170" s="28"/>
+    </row>
+    <row r="171" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="172" spans="2:6">
+      <c r="B172" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C172" s="28"/>
+      <c r="C172" s="31"/>
       <c r="D172" s="1" t="s">
         <v>48</v>
       </c>
@@ -2775,11 +2855,11 @@
       </c>
       <c r="F172" s="14"/>
     </row>
-    <row r="173" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="29" t="s">
+    <row r="173" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B173" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="30"/>
+      <c r="C173" s="25"/>
       <c r="D173" s="10" t="s">
         <v>47</v>
       </c>
@@ -2790,110 +2870,110 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="31" t="s">
+    <row r="174" spans="2:6" ht="27" thickBot="1">
+      <c r="B174" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C174" s="32"/>
-      <c r="D174" s="32"/>
-      <c r="E174" s="32"/>
-      <c r="F174" s="33"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="34" t="s">
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="E174" s="22"/>
+      <c r="F174" s="29"/>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C175" s="11"/>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="17"/>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="33"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="21" t="s">
+      <c r="D176" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="22"/>
-      <c r="F176" s="23"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B177" s="16"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="20"/>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="33"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="21" t="s">
+      <c r="D177" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E177" s="22"/>
-      <c r="F177" s="23"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B178" s="16"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="20"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="33"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="21" t="s">
+      <c r="D178" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E178" s="22"/>
-      <c r="F178" s="23"/>
-    </row>
-    <row r="179" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="17"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="20"/>
+    </row>
+    <row r="179" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B179" s="34"/>
       <c r="C179" s="13"/>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E179" s="25"/>
-      <c r="F179" s="26"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B180" s="15" t="s">
+      <c r="E179" s="27"/>
+      <c r="F179" s="28"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1"/>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B181" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="17"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="33"/>
       <c r="C181" s="12"/>
-      <c r="D181" s="21" t="s">
+      <c r="D181" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E181" s="22"/>
-      <c r="F181" s="23"/>
-    </row>
-    <row r="182" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="17"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="20"/>
+    </row>
+    <row r="182" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B182" s="34"/>
       <c r="C182" s="13"/>
-      <c r="D182" s="24" t="s">
+      <c r="D182" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E182" s="25"/>
-      <c r="F182" s="26"/>
-    </row>
-    <row r="183" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B184" s="27" t="s">
+      <c r="E182" s="27"/>
+      <c r="F182" s="28"/>
+    </row>
+    <row r="183" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="184" spans="2:6">
+      <c r="B184" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="28"/>
+      <c r="C184" s="31"/>
       <c r="D184" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F184" s="14"/>
     </row>
-    <row r="185" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="29" t="s">
+    <row r="185" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B185" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C185" s="30"/>
+      <c r="C185" s="25"/>
       <c r="D185" s="10" t="s">
         <v>49</v>
       </c>
@@ -2904,112 +2984,112 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="31" t="s">
+    <row r="186" spans="2:6" ht="27" thickBot="1">
+      <c r="B186" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="32"/>
-      <c r="D186" s="32"/>
-      <c r="E186" s="32"/>
-      <c r="F186" s="33"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B187" s="34" t="s">
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="29"/>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C187" s="11"/>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="19"/>
-      <c r="F187" s="20"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B188" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="17"/>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="33"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="21" t="s">
+      <c r="D188" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E188" s="22"/>
-      <c r="F188" s="23"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B189" s="16"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="20"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="33"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="21" t="s">
+      <c r="D189" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E189" s="22"/>
-      <c r="F189" s="23"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B190" s="16"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="20"/>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" s="33"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="21" t="s">
+      <c r="D190" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E190" s="22"/>
-      <c r="F190" s="23"/>
-    </row>
-    <row r="191" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="17"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="20"/>
+    </row>
+    <row r="191" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B191" s="34"/>
       <c r="C191" s="13"/>
-      <c r="D191" s="24" t="s">
+      <c r="D191" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E191" s="25"/>
-      <c r="F191" s="26"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B192" s="15" t="s">
+      <c r="E191" s="27"/>
+      <c r="F191" s="28"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E192" s="19"/>
-      <c r="F192" s="20"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B193" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="17"/>
+    </row>
+    <row r="193" spans="2:6">
+      <c r="B193" s="33"/>
       <c r="C193" s="12"/>
-      <c r="D193" s="21" t="s">
+      <c r="D193" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E193" s="22"/>
-      <c r="F193" s="23"/>
-    </row>
-    <row r="194" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="17"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="20"/>
+    </row>
+    <row r="194" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B194" s="34"/>
       <c r="C194" s="13"/>
-      <c r="D194" s="24" t="s">
+      <c r="D194" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E194" s="25"/>
-      <c r="F194" s="26"/>
-    </row>
-    <row r="195" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B196" s="27" t="s">
+      <c r="E194" s="27"/>
+      <c r="F194" s="28"/>
+    </row>
+    <row r="195" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="196" spans="2:6">
+      <c r="B196" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C196" s="28"/>
+      <c r="C196" s="31"/>
       <c r="D196" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F196" s="14"/>
     </row>
-    <row r="197" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="29" t="s">
+    <row r="197" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B197" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C197" s="30"/>
+      <c r="C197" s="25"/>
       <c r="D197" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>4</v>
@@ -3018,97 +3098,996 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="31" t="s">
+    <row r="198" spans="2:6" ht="27" thickBot="1">
+      <c r="B198" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
-      <c r="F198" s="33"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B199" s="34" t="s">
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="E198" s="22"/>
+      <c r="F198" s="29"/>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C199" s="11"/>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E199" s="19"/>
-      <c r="F199" s="20"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B200" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="17"/>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" s="33"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="21" t="s">
+      <c r="D200" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="22"/>
-      <c r="F200" s="23"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B201" s="16"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="20"/>
+    </row>
+    <row r="201" spans="2:6">
+      <c r="B201" s="33"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="21" t="s">
+      <c r="D201" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E201" s="22"/>
-      <c r="F201" s="23"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B202" s="16"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="20"/>
+    </row>
+    <row r="202" spans="2:6">
+      <c r="B202" s="33"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="21" t="s">
+      <c r="D202" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E202" s="22"/>
-      <c r="F202" s="23"/>
-    </row>
-    <row r="203" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="17"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="20"/>
+    </row>
+    <row r="203" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B203" s="34"/>
       <c r="C203" s="13"/>
-      <c r="D203" s="24" t="s">
+      <c r="D203" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E203" s="25"/>
-      <c r="F203" s="26"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B204" s="15" t="s">
+      <c r="E203" s="27"/>
+      <c r="F203" s="28"/>
+    </row>
+    <row r="204" spans="2:6">
+      <c r="B204" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C204" s="1"/>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E204" s="19"/>
-      <c r="F204" s="20"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B205" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="17"/>
+    </row>
+    <row r="205" spans="2:6">
+      <c r="B205" s="33"/>
       <c r="C205" s="12"/>
-      <c r="D205" s="21" t="s">
+      <c r="D205" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E205" s="22"/>
-      <c r="F205" s="23"/>
-    </row>
-    <row r="206" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="17"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="20"/>
+    </row>
+    <row r="206" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B206" s="34"/>
       <c r="C206" s="13"/>
-      <c r="D206" s="24" t="s">
+      <c r="D206" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E206" s="25"/>
-      <c r="F206" s="26"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="28"/>
+    </row>
+    <row r="207" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="208" spans="2:6">
+      <c r="B208" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="31"/>
+      <c r="D208" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B209" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C209" s="25"/>
+      <c r="D209" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="27" thickBot="1">
+      <c r="B210" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="E210" s="22"/>
+      <c r="F210" s="29"/>
+    </row>
+    <row r="211" spans="2:6">
+      <c r="B211" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="11"/>
+      <c r="D211" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="16"/>
+      <c r="F211" s="17"/>
+    </row>
+    <row r="212" spans="2:6">
+      <c r="B212" s="33"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" s="19"/>
+      <c r="F212" s="20"/>
+    </row>
+    <row r="213" spans="2:6">
+      <c r="B213" s="33"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="19"/>
+      <c r="F213" s="20"/>
+    </row>
+    <row r="214" spans="2:6">
+      <c r="B214" s="33"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="19"/>
+      <c r="F214" s="20"/>
+    </row>
+    <row r="215" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B215" s="34"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" s="27"/>
+      <c r="F215" s="28"/>
+    </row>
+    <row r="216" spans="2:6">
+      <c r="B216" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" s="16"/>
+      <c r="F216" s="17"/>
+    </row>
+    <row r="217" spans="2:6">
+      <c r="B217" s="33"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" s="19"/>
+      <c r="F217" s="20"/>
+    </row>
+    <row r="218" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B218" s="34"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" s="27"/>
+      <c r="F218" s="28"/>
+    </row>
+    <row r="219" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="220" spans="2:6">
+      <c r="B220" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="31"/>
+      <c r="D220" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B221" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="25"/>
+      <c r="D221" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" ht="27" thickBot="1">
+      <c r="B222" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+      <c r="E222" s="22"/>
+      <c r="F222" s="29"/>
+    </row>
+    <row r="223" spans="2:6">
+      <c r="B223" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C223" s="11"/>
+      <c r="D223" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="16"/>
+      <c r="F223" s="17"/>
+    </row>
+    <row r="224" spans="2:6">
+      <c r="B224" s="33"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" s="19"/>
+      <c r="F224" s="20"/>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="33"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" s="19"/>
+      <c r="F225" s="20"/>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="33"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="19"/>
+      <c r="F226" s="20"/>
+    </row>
+    <row r="227" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B227" s="34"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" s="27"/>
+      <c r="F227" s="28"/>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="1"/>
+      <c r="D228" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="16"/>
+      <c r="F228" s="17"/>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="33"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="19"/>
+      <c r="F229" s="20"/>
+    </row>
+    <row r="230" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B230" s="34"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" s="27"/>
+      <c r="F230" s="28"/>
+    </row>
+    <row r="231" spans="2:7" ht="17.25" thickBot="1">
+      <c r="G231" s="38"/>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="31"/>
+      <c r="D232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232" s="14"/>
+    </row>
+    <row r="233" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B233" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C233" s="25"/>
+      <c r="D233" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" ht="27" thickBot="1">
+      <c r="B234" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="29"/>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="16"/>
+      <c r="F235" s="17"/>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="33"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="19"/>
+      <c r="F236" s="20"/>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="33"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="19"/>
+      <c r="F237" s="20"/>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="33"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="19"/>
+      <c r="F238" s="20"/>
+    </row>
+    <row r="239" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B239" s="34"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" s="27"/>
+      <c r="F239" s="28"/>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" s="16"/>
+      <c r="F240" s="17"/>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" s="33"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" s="19"/>
+      <c r="F241" s="20"/>
+    </row>
+    <row r="242" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B242" s="34"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E242" s="27"/>
+      <c r="F242" s="28"/>
+    </row>
+    <row r="243" spans="2:7" ht="17.25" thickBot="1">
+      <c r="G243" s="38"/>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="31"/>
+      <c r="D244" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244" s="14"/>
+    </row>
+    <row r="245" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B245" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C245" s="25"/>
+      <c r="D245" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" ht="27" thickBot="1">
+      <c r="B246" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="29"/>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="11"/>
+      <c r="D247" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="16"/>
+      <c r="F247" s="17"/>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" s="33"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="19"/>
+      <c r="F248" s="20"/>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" s="33"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="19"/>
+      <c r="F249" s="20"/>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" s="33"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="19"/>
+      <c r="F250" s="20"/>
+    </row>
+    <row r="251" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B251" s="34"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" s="27"/>
+      <c r="F251" s="28"/>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" s="16"/>
+      <c r="F252" s="17"/>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" s="33"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E253" s="19"/>
+      <c r="F253" s="20"/>
+    </row>
+    <row r="254" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B254" s="34"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" s="27"/>
+      <c r="F254" s="28"/>
+    </row>
+    <row r="255" spans="2:7" ht="17.25" thickBot="1">
+      <c r="G255" s="38"/>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="31"/>
+      <c r="D256" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F256" s="14"/>
+    </row>
+    <row r="257" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B257" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C257" s="25"/>
+      <c r="D257" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" ht="27" thickBot="1">
+      <c r="B258" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="29"/>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="11"/>
+      <c r="D259" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="16"/>
+      <c r="F259" s="17"/>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="33"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" s="19"/>
+      <c r="F260" s="20"/>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" s="33"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="19"/>
+      <c r="F261" s="20"/>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" s="33"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="19"/>
+      <c r="F262" s="20"/>
+    </row>
+    <row r="263" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B263" s="34"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" s="27"/>
+      <c r="F263" s="28"/>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" s="16"/>
+      <c r="F264" s="17"/>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" s="33"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="19"/>
+      <c r="F265" s="20"/>
+    </row>
+    <row r="266" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B266" s="34"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E266" s="27"/>
+      <c r="F266" s="28"/>
+    </row>
+    <row r="267" spans="2:7" ht="17.25" thickBot="1">
+      <c r="G267" s="38"/>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" s="31"/>
+      <c r="D268" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F268" s="14"/>
+    </row>
+    <row r="269" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B269" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C269" s="25"/>
+      <c r="D269" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" ht="27" thickBot="1">
+      <c r="B270" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="29"/>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C271" s="11"/>
+      <c r="D271" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" s="16"/>
+      <c r="F271" s="17"/>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" s="33"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="19"/>
+      <c r="F272" s="20"/>
+    </row>
+    <row r="273" spans="2:7">
+      <c r="B273" s="33"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="19"/>
+      <c r="F273" s="20"/>
+    </row>
+    <row r="274" spans="2:7">
+      <c r="B274" s="33"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="19"/>
+      <c r="F274" s="20"/>
+    </row>
+    <row r="275" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B275" s="34"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E275" s="27"/>
+      <c r="F275" s="28"/>
+    </row>
+    <row r="276" spans="2:7">
+      <c r="B276" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" s="1"/>
+      <c r="D276" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" s="16"/>
+      <c r="F276" s="17"/>
+    </row>
+    <row r="277" spans="2:7">
+      <c r="B277" s="33"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" s="19"/>
+      <c r="F277" s="20"/>
+    </row>
+    <row r="278" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B278" s="34"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E278" s="27"/>
+      <c r="F278" s="28"/>
+    </row>
+    <row r="279" spans="2:7" ht="17.25" thickBot="1">
+      <c r="G279" s="38"/>
+    </row>
+    <row r="280" spans="2:7">
+      <c r="B280" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" s="31"/>
+      <c r="D280" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F280" s="14"/>
+    </row>
+    <row r="281" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B281" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C281" s="25"/>
+      <c r="D281" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" ht="27" thickBot="1">
+      <c r="B282" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" s="22"/>
+      <c r="D282" s="22"/>
+      <c r="E282" s="22"/>
+      <c r="F282" s="29"/>
+    </row>
+    <row r="283" spans="2:7">
+      <c r="B283" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="11"/>
+      <c r="D283" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" s="16"/>
+      <c r="F283" s="17"/>
+    </row>
+    <row r="284" spans="2:7">
+      <c r="B284" s="33"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" s="19"/>
+      <c r="F284" s="20"/>
+    </row>
+    <row r="285" spans="2:7">
+      <c r="B285" s="33"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="19"/>
+      <c r="F285" s="20"/>
+    </row>
+    <row r="286" spans="2:7">
+      <c r="B286" s="33"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" s="19"/>
+      <c r="F286" s="20"/>
+    </row>
+    <row r="287" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B287" s="34"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" s="27"/>
+      <c r="F287" s="28"/>
+    </row>
+    <row r="288" spans="2:7">
+      <c r="B288" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="1"/>
+      <c r="D288" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E288" s="16"/>
+      <c r="F288" s="17"/>
+    </row>
+    <row r="289" spans="2:6">
+      <c r="B289" s="33"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="19"/>
+      <c r="F289" s="20"/>
+    </row>
+    <row r="290" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B290" s="34"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" s="27"/>
+      <c r="F290" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="313">
+    <mergeCell ref="B288:B290"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="B276:B278"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="D283:F283"/>
+    <mergeCell ref="D284:F284"/>
+    <mergeCell ref="D285:F285"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="B264:B266"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:B275"/>
+    <mergeCell ref="D271:F271"/>
+    <mergeCell ref="D272:F272"/>
+    <mergeCell ref="D273:F273"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:B263"/>
+    <mergeCell ref="D259:F259"/>
+    <mergeCell ref="D260:F260"/>
+    <mergeCell ref="D261:F261"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:B251"/>
+    <mergeCell ref="D247:F247"/>
+    <mergeCell ref="D248:F248"/>
+    <mergeCell ref="D249:F249"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="D251:F251"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="B216:B218"/>
+    <mergeCell ref="D216:F216"/>
+    <mergeCell ref="D217:F217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:B227"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
     <mergeCell ref="B204:B206"/>
     <mergeCell ref="D204:F204"/>
     <mergeCell ref="D205:F205"/>
     <mergeCell ref="D206:F206"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
     <mergeCell ref="B192:B194"/>
     <mergeCell ref="D192:F192"/>
     <mergeCell ref="D193:F193"/>
@@ -3135,6 +4114,10 @@
     <mergeCell ref="D189:F189"/>
     <mergeCell ref="D190:F190"/>
     <mergeCell ref="D191:F191"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="D170:F170"/>
     <mergeCell ref="B172:C172"/>
     <mergeCell ref="B173:C173"/>
     <mergeCell ref="B174:F174"/>
@@ -3144,6 +4127,161 @@
     <mergeCell ref="D177:F177"/>
     <mergeCell ref="D178:F178"/>
     <mergeCell ref="D179:F179"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="D167:F167"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="D146:F146"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="D154:F154"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D55:F55"/>
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="D43:F43"/>
@@ -3168,165 +4306,6 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="D146:F146"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="D154:F154"/>
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="D167:F167"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3336,19 +4315,26 @@
     <hyperlink ref="D41" r:id="rId4" xr:uid="{06864EE7-407E-4758-9D72-A8A3C83966B9}"/>
     <hyperlink ref="D53" r:id="rId5" xr:uid="{EF52BCC8-3789-4B3F-BA9A-71112BA87054}"/>
     <hyperlink ref="D65" r:id="rId6" xr:uid="{15C122BD-1B12-4089-A31E-8363C895C9AD}"/>
-    <hyperlink ref="D77" r:id="rId7" xr:uid="{61C75032-623A-4E91-85CE-32FEBA06B7E3}"/>
-    <hyperlink ref="D89" r:id="rId8" xr:uid="{A38AB38A-B392-46FB-B787-340AAC82704D}"/>
-    <hyperlink ref="D101" r:id="rId9" xr:uid="{3B329BBD-6C6A-4708-A1AD-D48DA0ADB4D3}"/>
-    <hyperlink ref="D113" r:id="rId10" xr:uid="{5B60D571-F54E-436F-B754-D15AAF9257F9}"/>
-    <hyperlink ref="D125" r:id="rId11" xr:uid="{9FE2663A-CE97-46C4-B0FA-30B19B10EEAE}"/>
-    <hyperlink ref="D137" r:id="rId12" xr:uid="{937E1C92-08C0-4E82-A84B-275C478E51B3}"/>
-    <hyperlink ref="D149" r:id="rId13" xr:uid="{8E3519DE-E5FC-4301-ACEF-DF957E3DD872}"/>
-    <hyperlink ref="D161" r:id="rId14" xr:uid="{5D7C55BC-D7CE-49BB-8783-6F611ACD05AE}"/>
-    <hyperlink ref="D173" r:id="rId15" xr:uid="{4CE645F5-1D07-4A7C-BE2D-146140BBEA27}"/>
-    <hyperlink ref="D185" r:id="rId16" xr:uid="{D3ACAA27-5DAA-4E24-AA3E-9ABCA4C9BF0B}"/>
-    <hyperlink ref="D197" r:id="rId17" xr:uid="{F3C36B44-4EA8-49EE-A5B7-3803EFADE368}"/>
+    <hyperlink ref="D89" r:id="rId7" xr:uid="{A38AB38A-B392-46FB-B787-340AAC82704D}"/>
+    <hyperlink ref="D113" r:id="rId8" xr:uid="{5B60D571-F54E-436F-B754-D15AAF9257F9}"/>
+    <hyperlink ref="D125" r:id="rId9" xr:uid="{9FE2663A-CE97-46C4-B0FA-30B19B10EEAE}"/>
+    <hyperlink ref="D137" r:id="rId10" xr:uid="{937E1C92-08C0-4E82-A84B-275C478E51B3}"/>
+    <hyperlink ref="D77" r:id="rId11" xr:uid="{EDC2A27B-CBE7-40CC-BD63-0B5897EAC004}"/>
+    <hyperlink ref="D101" r:id="rId12" xr:uid="{7F3D750C-30BE-4F76-A8B8-311810AF811A}"/>
+    <hyperlink ref="D149" r:id="rId13" xr:uid="{7C12E398-563F-4EA4-9F76-8BFBEEA283C0}"/>
+    <hyperlink ref="D161" r:id="rId14" xr:uid="{EE493205-3273-43C0-AA18-4E5680971685}"/>
+    <hyperlink ref="D173" r:id="rId15" xr:uid="{BB53E8CF-1F46-49D0-B258-7D0973F39B22}"/>
+    <hyperlink ref="D185" r:id="rId16" xr:uid="{50D073E7-6273-4F6D-8227-C1508CF3F24C}"/>
+    <hyperlink ref="D197" r:id="rId17" xr:uid="{F3081B63-472E-4F13-B384-4C8721C015AA}"/>
+    <hyperlink ref="D209" r:id="rId18" xr:uid="{F926748E-5D14-4067-BD46-1BDEAC585B3E}"/>
+    <hyperlink ref="D221" r:id="rId19" xr:uid="{198833CE-73FE-4E09-B265-C82E9EC7C455}"/>
+    <hyperlink ref="D233" r:id="rId20" xr:uid="{3A225B0E-6903-4642-AD83-153C21FD916E}"/>
+    <hyperlink ref="D245" r:id="rId21" xr:uid="{7B6C9452-85F9-45D5-BDC2-59F66780C59A}"/>
+    <hyperlink ref="D257" r:id="rId22" xr:uid="{5605963C-39B3-4E16-872A-04020504B7BB}"/>
+    <hyperlink ref="D269" r:id="rId23" xr:uid="{D0CABA13-191E-4960-BAFE-60212B992597}"/>
+    <hyperlink ref="D281" r:id="rId24" xr:uid="{734AF181-9A46-410D-B0E3-F1AB8BB3B325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>